--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3684.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3684.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.210418613224565</v>
+        <v>3.838884592056274</v>
       </c>
       <c r="B1">
-        <v>2.371336489131285</v>
+        <v>4.521198749542236</v>
       </c>
       <c r="C1">
-        <v>8.186077451006801</v>
+        <v>3.215765476226807</v>
       </c>
       <c r="D1">
-        <v>2.387854986839624</v>
+        <v>2.477200508117676</v>
       </c>
       <c r="E1">
-        <v>1.174820961202153</v>
+        <v>2.292156219482422</v>
       </c>
     </row>
   </sheetData>
